--- a/data/hotels_by_city/Houston/Houston_shard_560.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_560.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d99131-Reviews-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Rodeway-Inn-And-Suites-Medical.h28566.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,516 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r524208739-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99131</t>
+  </si>
+  <si>
+    <t>524208739</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service is a joke </t>
+  </si>
+  <si>
+    <t>Don't waste your money! Yes it has a kitchen however there was nothing in the cabinets- no dishes/silverware or pots/pans. So the kitchen becomes useless unless you bring your own. Their customer service attitude is laughable. A pipe burst during our stay and they didn't seem to be alarmed. We spent the entire night setting up trash cans to catch the leak and continually emptying them, as guests of the hotel mind you. Took them 24hrs to get a plumber to get it fixed and cleaned up. Our tv also stopped connecting to the direct tv they have, they once again weren't alarmed stating the tv in the lobby was working just fine. After having to address the problem myself found out from the cable company customer service, it was because the cable box was under collection for a withstanding balance of $56.75 and it couldn't be turned back on till someone paid the bill. Door didn't work, key card kept being rejected but if you turned the handle up instead of down it would open no matter what. Poorly managed and unable to be held accountable by parenting company choice hotels because it is privately owned. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>LEENA P, Public Relations Manager at Rodeway Inn &amp; Suites Medical Center, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Don't waste your money! Yes it has a kitchen however there was nothing in the cabinets- no dishes/silverware or pots/pans. So the kitchen becomes useless unless you bring your own. Their customer service attitude is laughable. A pipe burst during our stay and they didn't seem to be alarmed. We spent the entire night setting up trash cans to catch the leak and continually emptying them, as guests of the hotel mind you. Took them 24hrs to get a plumber to get it fixed and cleaned up. Our tv also stopped connecting to the direct tv they have, they once again weren't alarmed stating the tv in the lobby was working just fine. After having to address the problem myself found out from the cable company customer service, it was because the cable box was under collection for a withstanding balance of $56.75 and it couldn't be turned back on till someone paid the bill. Door didn't work, key card kept being rejected but if you turned the handle up instead of down it would open no matter what. Poorly managed and unable to be held accountable by parenting company choice hotels because it is privately owned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r497313524-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497313524</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>I never once felt in danger or anything while staying here.  We've been coming to Houston for a long time for cancer treatment at MD Anderson, and our (and many other patients) usual "go to" hotel sold out and went downhill bad.  Talk about unsafe, people were blatantly selling drugs all night out of the room next to us, and the rooms were gross!  We looked for several days online and decided to roll the dice and try this one...we were pleasantly surprised.  No it's not a five star hotel, but it's very clean and quiet, and very affordable rates.  I pray it's not just a fluke, and that this becomes our new "go to" motel.  We also had a fridge, stove, microwave, coffee pot, and continental breakfast.  Very comfortable.  The parking lot is different from others, but we thought it was fine, we never had any problems, and were always able to park just a few feet from our room.  It's an older motel but looks to have been remodeled.  Yes, the couch in the office is peeling some, but it's immaculate, we weren't bothered by it, we're not sitting on it.  The only thing that bothered us was that the vanity in the bathroom is tiny, so there's no place to put your stuff.  We'll probably bring a little tv tray or something with us next trip.  Please God let this place remain good so that we can...I never once felt in danger or anything while staying here.  We've been coming to Houston for a long time for cancer treatment at MD Anderson, and our (and many other patients) usual "go to" hotel sold out and went downhill bad.  Talk about unsafe, people were blatantly selling drugs all night out of the room next to us, and the rooms were gross!  We looked for several days online and decided to roll the dice and try this one...we were pleasantly surprised.  No it's not a five star hotel, but it's very clean and quiet, and very affordable rates.  I pray it's not just a fluke, and that this becomes our new "go to" motel.  We also had a fridge, stove, microwave, coffee pot, and continental breakfast.  Very comfortable.  The parking lot is different from others, but we thought it was fine, we never had any problems, and were always able to park just a few feet from our room.  It's an older motel but looks to have been remodeled.  Yes, the couch in the office is peeling some, but it's immaculate, we weren't bothered by it, we're not sitting on it.  The only thing that bothered us was that the vanity in the bathroom is tiny, so there's no place to put your stuff.  We'll probably bring a little tv tray or something with us next trip.  Please God let this place remain good so that we can count on it when we come to Houston!  Thanks Rodeway Inn!  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I never once felt in danger or anything while staying here.  We've been coming to Houston for a long time for cancer treatment at MD Anderson, and our (and many other patients) usual "go to" hotel sold out and went downhill bad.  Talk about unsafe, people were blatantly selling drugs all night out of the room next to us, and the rooms were gross!  We looked for several days online and decided to roll the dice and try this one...we were pleasantly surprised.  No it's not a five star hotel, but it's very clean and quiet, and very affordable rates.  I pray it's not just a fluke, and that this becomes our new "go to" motel.  We also had a fridge, stove, microwave, coffee pot, and continental breakfast.  Very comfortable.  The parking lot is different from others, but we thought it was fine, we never had any problems, and were always able to park just a few feet from our room.  It's an older motel but looks to have been remodeled.  Yes, the couch in the office is peeling some, but it's immaculate, we weren't bothered by it, we're not sitting on it.  The only thing that bothered us was that the vanity in the bathroom is tiny, so there's no place to put your stuff.  We'll probably bring a little tv tray or something with us next trip.  Please God let this place remain good so that we can...I never once felt in danger or anything while staying here.  We've been coming to Houston for a long time for cancer treatment at MD Anderson, and our (and many other patients) usual "go to" hotel sold out and went downhill bad.  Talk about unsafe, people were blatantly selling drugs all night out of the room next to us, and the rooms were gross!  We looked for several days online and decided to roll the dice and try this one...we were pleasantly surprised.  No it's not a five star hotel, but it's very clean and quiet, and very affordable rates.  I pray it's not just a fluke, and that this becomes our new "go to" motel.  We also had a fridge, stove, microwave, coffee pot, and continental breakfast.  Very comfortable.  The parking lot is different from others, but we thought it was fine, we never had any problems, and were always able to park just a few feet from our room.  It's an older motel but looks to have been remodeled.  Yes, the couch in the office is peeling some, but it's immaculate, we weren't bothered by it, we're not sitting on it.  The only thing that bothered us was that the vanity in the bathroom is tiny, so there's no place to put your stuff.  We'll probably bring a little tv tray or something with us next trip.  Please God let this place remain good so that we can count on it when we come to Houston!  Thanks Rodeway Inn!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r491626949-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491626949</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>My brother needed somewhere to stay while he received treatment at the MD Anderson Center. The OWNER was horribly rude to, not only me but, my brother. He told me "to STAY SOMEWHERE ELSE", when I was dissatisfied. It was also very DIRTY and smelt TERRIBLE. You think with a RUN DOWN HOTEL, they would have better sevice. I don't see this place being open much longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r442319264-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442319264</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Worst motel ever</t>
+  </si>
+  <si>
+    <t>The first problem was leaky pipes in the walls. Every time I ran the kitchen faucet water ran under the floor boards. Also when the man upstairs took a shower or used his sink. Place was unbelievably filthy and moldy. The sofa was probably 20 years or more, not leather, very filthy and infested. We discovered bed bugs in a couple of days. None of the staff spoke English. We could not get towels or blankets because they couldn't understand us. The 2 young night managers were useless and incredibly stupid. The couple that live there an older, rude Asian Indian couple who know nothing about running a hotel. They operate it by Indian standards not American and had very unhappy guests. One of the women there when we were there got locked out on the night we left and the night manager wouldn't open the door to reset her key which had quit working. There were large cockroaches  both mornings in the tub.  There were burn marks on the plug in the bathroom which made me afraid to dry my hair. The only good thing About the place was good cable channels. The day manager was so rude that 10 minutes after we got there my daughter started crying because he scared her. Unsafe flooring buckling everywhere because of the water I'm sure. No place to turn around. Parking lot did not have a spot for every room and...The first problem was leaky pipes in the walls. Every time I ran the kitchen faucet water ran under the floor boards. Also when the man upstairs took a shower or used his sink. Place was unbelievably filthy and moldy. The sofa was probably 20 years or more, not leather, very filthy and infested. We discovered bed bugs in a couple of days. None of the staff spoke English. We could not get towels or blankets because they couldn't understand us. The 2 young night managers were useless and incredibly stupid. The couple that live there an older, rude Asian Indian couple who know nothing about running a hotel. They operate it by Indian standards not American and had very unhappy guests. One of the women there when we were there got locked out on the night we left and the night manager wouldn't open the door to reset her key which had quit working. There were large cockroaches  both mornings in the tub.  There were burn marks on the plug in the bathroom which made me afraid to dry my hair. The only good thing About the place was good cable channels. The day manager was so rude that 10 minutes after we got there my daughter started crying because he scared her. Unsafe flooring buckling everywhere because of the water I'm sure. No place to turn around. Parking lot did not have a spot for every room and no place to park on the street or room to turn around.No safety strips on the tub or any kind of safety feature. Breakfast foods were old and stale, totally inedible and the stupid manager all but cussed us out for complaining.housekeeping didn't change our sheets till we found the bedbugs. The manager claims no one told him about the bedbugs. My husband got an infection from 2 bites that wouldn't heal and we are going to sue to get his medical bills paid. I believe he has to know about the problem because so many guests on here complained about them. When we told the manager he accused us of lying. We had to throw away everything we brought with us to avoid bringing them home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>LEENA P, General Manager at Rodeway Inn &amp; Suites Medical Center, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>The first problem was leaky pipes in the walls. Every time I ran the kitchen faucet water ran under the floor boards. Also when the man upstairs took a shower or used his sink. Place was unbelievably filthy and moldy. The sofa was probably 20 years or more, not leather, very filthy and infested. We discovered bed bugs in a couple of days. None of the staff spoke English. We could not get towels or blankets because they couldn't understand us. The 2 young night managers were useless and incredibly stupid. The couple that live there an older, rude Asian Indian couple who know nothing about running a hotel. They operate it by Indian standards not American and had very unhappy guests. One of the women there when we were there got locked out on the night we left and the night manager wouldn't open the door to reset her key which had quit working. There were large cockroaches  both mornings in the tub.  There were burn marks on the plug in the bathroom which made me afraid to dry my hair. The only good thing About the place was good cable channels. The day manager was so rude that 10 minutes after we got there my daughter started crying because he scared her. Unsafe flooring buckling everywhere because of the water I'm sure. No place to turn around. Parking lot did not have a spot for every room and...The first problem was leaky pipes in the walls. Every time I ran the kitchen faucet water ran under the floor boards. Also when the man upstairs took a shower or used his sink. Place was unbelievably filthy and moldy. The sofa was probably 20 years or more, not leather, very filthy and infested. We discovered bed bugs in a couple of days. None of the staff spoke English. We could not get towels or blankets because they couldn't understand us. The 2 young night managers were useless and incredibly stupid. The couple that live there an older, rude Asian Indian couple who know nothing about running a hotel. They operate it by Indian standards not American and had very unhappy guests. One of the women there when we were there got locked out on the night we left and the night manager wouldn't open the door to reset her key which had quit working. There were large cockroaches  both mornings in the tub.  There were burn marks on the plug in the bathroom which made me afraid to dry my hair. The only good thing About the place was good cable channels. The day manager was so rude that 10 minutes after we got there my daughter started crying because he scared her. Unsafe flooring buckling everywhere because of the water I'm sure. No place to turn around. Parking lot did not have a spot for every room and no place to park on the street or room to turn around.No safety strips on the tub or any kind of safety feature. Breakfast foods were old and stale, totally inedible and the stupid manager all but cussed us out for complaining.housekeeping didn't change our sheets till we found the bedbugs. The manager claims no one told him about the bedbugs. My husband got an infection from 2 bites that wouldn't heal and we are going to sue to get his medical bills paid. I believe he has to know about the problem because so many guests on here complained about them. When we told the manager he accused us of lying. We had to throw away everything we brought with us to avoid bringing them home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r387621245-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387621245</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>The photos online and amenities listed make it appear to be a good value. It's cheap and it feels like it. I dealt with two different front desk guys. The one who greeted me put me in a horrific room which stunk of smoke &amp; mildew and the refrigerator so loud, it would need to be unplugged to be able to sleep. I asked to change rooms which was no problem. The fluorescent lighting was terrible and, I hate to say it, but there was a giant cockroach. The free breakfast at the front desk was packaged pastries, bananas, do-it-yourself waffles, instant oatmeal, bad coffee &amp; orange juice.It does have a little (unfurnished) kitchen, iron, hairdryer. With some effort and a little investment, this place could be improved a lot, but as is...be prepared: it's cheap for a reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The photos online and amenities listed make it appear to be a good value. It's cheap and it feels like it. I dealt with two different front desk guys. The one who greeted me put me in a horrific room which stunk of smoke &amp; mildew and the refrigerator so loud, it would need to be unplugged to be able to sleep. I asked to change rooms which was no problem. The fluorescent lighting was terrible and, I hate to say it, but there was a giant cockroach. The free breakfast at the front desk was packaged pastries, bananas, do-it-yourself waffles, instant oatmeal, bad coffee &amp; orange juice.It does have a little (unfurnished) kitchen, iron, hairdryer. With some effort and a little investment, this place could be improved a lot, but as is...be prepared: it's cheap for a reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r385385477-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385385477</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and Affordable Place for One Night</t>
+  </si>
+  <si>
+    <t>Not luxurious or plush in any way, but the Rodeway Inn is a comfortable place to stay on a budget for a short stay.  My father and I came for 1 night to watch a copa america soccer game.  The hotel is close to the NRG Stadium, and is a great value.  It does have a damp/moldy smell to it, and the furniture is also quite outdated.  The suites are comfortable however with good internet, and a nice sized LCD TV.  The free breakfast is a plus as well.  I recommend this place for a short stay close to the NRG Stadium/Center or the Medical Center.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r346283860-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346283860</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Mixed Bag</t>
+  </si>
+  <si>
+    <t>This motel was such an odd mixture of good and bad.  The manager was pleasant and lived on-site.  The neighborhood was nice and the room was quiet. It felt clean because of the hard surface floors throughout. The kitchen had nearly a full sized frig, stove, and microwave. It was an old place but had been updated. However, the updates were not done well ... the black cable for the TV strung diagonally across the white ceiling.  The tiles didn't have subflooring underneath so many were loose.  The kitchen had zero kitchenware in the cabinets.  The bed was on a platform that had been painted on two of the 3 exposed sides. The nice wooden blinds had not been shortened to fit the window.  It seemed there were many "easy" fixes to improve the feel of the room.  With a little money, it could be a welcoming room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This motel was such an odd mixture of good and bad.  The manager was pleasant and lived on-site.  The neighborhood was nice and the room was quiet. It felt clean because of the hard surface floors throughout. The kitchen had nearly a full sized frig, stove, and microwave. It was an old place but had been updated. However, the updates were not done well ... the black cable for the TV strung diagonally across the white ceiling.  The tiles didn't have subflooring underneath so many were loose.  The kitchen had zero kitchenware in the cabinets.  The bed was on a platform that had been painted on two of the 3 exposed sides. The nice wooden blinds had not been shortened to fit the window.  It seemed there were many "easy" fixes to improve the feel of the room.  With a little money, it could be a welcoming room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r344483981-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344483981</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Only For the budget traveller</t>
+  </si>
+  <si>
+    <t>This hotel was convenient to my meetings and that is all I will say good about It. Oh, there were no bugs so that's two items. It was very inexpensive but so were the Hugo and the VW thing. It was a bed and shower. Period. Avoid unless you can't afford anything else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r338752541-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338752541</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Badly needs updating.</t>
+  </si>
+  <si>
+    <t>There is no counter top or other place to set things down in the bathroom. The floor is in bad shape. The lighting is poor, both in the room and in the parking lot. The parking is difficult to maneuver as you must make an awkward turn-around to exit. The room smelled like it had been smoked in. I stayed here on a last-minute basis, but I will never stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r271196201-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271196201</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>SHUT THIS PLACE DOWN</t>
+  </si>
+  <si>
+    <t>My family and I will NEVER return to this hotel again. It was a horrible experience. Whoever the guy is that worked the night shift on May 9, 2015 was very rude and of all of the complaints I have about the experience, his customer service was totally unprofessional. He was on his cell phone when I first walked up and responded to me as if I was interrupting me ... then he refused to get us sheets and a blanket for the pull out couch saying he "couldn't" leave the front desk, although the door was locked... the rooms smelled, there was human body fluids on the wall, there was long hair in the shower (I'm bald), my room door obviously had been kicked in and the repairs were horrible ... then the continental breakfast was skimpy and utterly pitiful. Again, as you can see,we will never return ... and I will try to give a bad review everywhere I can ... that's how bad the experience was. SmhMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My family and I will NEVER return to this hotel again. It was a horrible experience. Whoever the guy is that worked the night shift on May 9, 2015 was very rude and of all of the complaints I have about the experience, his customer service was totally unprofessional. He was on his cell phone when I first walked up and responded to me as if I was interrupting me ... then he refused to get us sheets and a blanket for the pull out couch saying he "couldn't" leave the front desk, although the door was locked... the rooms smelled, there was human body fluids on the wall, there was long hair in the shower (I'm bald), my room door obviously had been kicked in and the repairs were horrible ... then the continental breakfast was skimpy and utterly pitiful. Again, as you can see,we will never return ... and I will try to give a bad review everywhere I can ... that's how bad the experience was. SmhMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r267454643-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267454643</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Spider net on your ceiling, blood on your wall, holes on your comforter, roaches in your bathroom. Exciting experience for the dollars you spend! You can play CSI with the blood, you can watch the spiders and roaches instead of going to Houston Zoo, and you can use your imagination about smokers in non-smoking room...Fantastic!!!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r258673956-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258673956</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel in the Medical Center Area</t>
+  </si>
+  <si>
+    <t>Travel to Houston several times per year to visit MDAnderson and hotels were tight this year as my trip coincided with the Houston rodeo/livestock show.  Finally found this Rodeway Inn, right off Holcombe and convenient to both MDAnderson and NRG Stadium.  Thought it was a good deal until I arrived - very run down, the room was very musty and dark (smallest light bulbs they could use); the parking lot is small and cramped and the breakfast area in the lobby didn't look very appealing.  Will never stay here again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r222099019-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222099019</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total dump. Never never come here. The roaches are bigger than my luggage. The front desk manager is rude and uncaring. The rooms are fit for pimps and hookers but not much else. Need I say more?I tried to check in and spent the next 10 minutes being ignored. Then I got to my room and realized how horrible this place is. I left without checking out and went elsewhere. Lesson learned. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r214574659-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214574659</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>One step up from the bottom</t>
+  </si>
+  <si>
+    <t>With taxes we paid just under $100 for a queen suite. The suite had a small living room area and a nice size kitchen area. The frig was clean and the two burners worked. However, the room was poorly renovated and smelled weird. There was rotten wood that had been painted over in an attempt to "pretty" up the place, but rotted wood is still rotted wood even if you paint it. The ceiling and two different places on the walls had water damage from leaks from the above unit. Again, painted over but still obvious. There was mold on the wall near the air conditioner and mold was growing on the baseboard wood in the bathroom. The sheets and towels appeared clean, however I choose to sleep in my clothes, and never allowed my feet to touch the tile floor. The tile floor had obviously been cleaned but I could see the left over crumbs and stuff in the crout so walking on the tile in my bare feed made me nervous. On a plus side, other than two mosquitos that clearly came through the door with us, I did not see any other bugs. This is a review of only one unit in the building and may not reflect the entire building, however next time I will opt for the $250 a night hotel instead of this one. I am a true penny pincher and stretch every dollar...With taxes we paid just under $100 for a queen suite. The suite had a small living room area and a nice size kitchen area. The frig was clean and the two burners worked. However, the room was poorly renovated and smelled weird. There was rotten wood that had been painted over in an attempt to "pretty" up the place, but rotted wood is still rotted wood even if you paint it. The ceiling and two different places on the walls had water damage from leaks from the above unit. Again, painted over but still obvious. There was mold on the wall near the air conditioner and mold was growing on the baseboard wood in the bathroom. The sheets and towels appeared clean, however I choose to sleep in my clothes, and never allowed my feet to touch the tile floor. The tile floor had obviously been cleaned but I could see the left over crumbs and stuff in the crout so walking on the tile in my bare feed made me nervous. On a plus side, other than two mosquitos that clearly came through the door with us, I did not see any other bugs. This is a review of only one unit in the building and may not reflect the entire building, however next time I will opt for the $250 a night hotel instead of this one. I am a true penny pincher and stretch every dollar as far as I can, so if you knew me you would understand how much I hated this hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>With taxes we paid just under $100 for a queen suite. The suite had a small living room area and a nice size kitchen area. The frig was clean and the two burners worked. However, the room was poorly renovated and smelled weird. There was rotten wood that had been painted over in an attempt to "pretty" up the place, but rotted wood is still rotted wood even if you paint it. The ceiling and two different places on the walls had water damage from leaks from the above unit. Again, painted over but still obvious. There was mold on the wall near the air conditioner and mold was growing on the baseboard wood in the bathroom. The sheets and towels appeared clean, however I choose to sleep in my clothes, and never allowed my feet to touch the tile floor. The tile floor had obviously been cleaned but I could see the left over crumbs and stuff in the crout so walking on the tile in my bare feed made me nervous. On a plus side, other than two mosquitos that clearly came through the door with us, I did not see any other bugs. This is a review of only one unit in the building and may not reflect the entire building, however next time I will opt for the $250 a night hotel instead of this one. I am a true penny pincher and stretch every dollar...With taxes we paid just under $100 for a queen suite. The suite had a small living room area and a nice size kitchen area. The frig was clean and the two burners worked. However, the room was poorly renovated and smelled weird. There was rotten wood that had been painted over in an attempt to "pretty" up the place, but rotted wood is still rotted wood even if you paint it. The ceiling and two different places on the walls had water damage from leaks from the above unit. Again, painted over but still obvious. There was mold on the wall near the air conditioner and mold was growing on the baseboard wood in the bathroom. The sheets and towels appeared clean, however I choose to sleep in my clothes, and never allowed my feet to touch the tile floor. The tile floor had obviously been cleaned but I could see the left over crumbs and stuff in the crout so walking on the tile in my bare feed made me nervous. On a plus side, other than two mosquitos that clearly came through the door with us, I did not see any other bugs. This is a review of only one unit in the building and may not reflect the entire building, however next time I will opt for the $250 a night hotel instead of this one. I am a true penny pincher and stretch every dollar as far as I can, so if you knew me you would understand how much I hated this hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r211926066-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211926066</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r205385985-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205385985</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent value, good location for Medical Center</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, friendly staff. Older hotel but well maintained. Excellent location if you are visiting the Medical Center. Has shuttle to/from hospitals. Abhilash Sukumari at the front desk was especially friendly and helpful. This was our second visit and will stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r204847450-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204847450</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Shocked</t>
+  </si>
+  <si>
+    <t>Medical trip. I knew the rate was higher for Mon May5because of Oil convention and didn't mind paying the rate, but we didn't get what we paid for $450. I can't be positive about in any way shape or form about the condition of the room.I'll skip commenting on the appearance of site because it deceived me. After opening the door to the room, it was apparent the owner spent more on landscaping and yard maintenance than on the room, The condition of the room on website didn't show the inside door sloppily painted with 2 colors one superimposed in places over the other. The door appeared to have been kicked in because it didn't fit properly. The floor molding was painted one color and appeared to have begun to paint it another color here and there. What a mess to look at.  The small couch was old with various red stains.The sheets were wrinkled and old as well as the towels. My husband and I talked about these hotels having cheap rates and you pretty well get what you pay for.  But we had to pay upfront $450 for 2 nights. We think $300 a night for the room is too much for the room we described. On a best rate, I'd say $60.00.Our experience isn't one that a property wants to be known for.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Medical trip. I knew the rate was higher for Mon May5because of Oil convention and didn't mind paying the rate, but we didn't get what we paid for $450. I can't be positive about in any way shape or form about the condition of the room.I'll skip commenting on the appearance of site because it deceived me. After opening the door to the room, it was apparent the owner spent more on landscaping and yard maintenance than on the room, The condition of the room on website didn't show the inside door sloppily painted with 2 colors one superimposed in places over the other. The door appeared to have been kicked in because it didn't fit properly. The floor molding was painted one color and appeared to have begun to paint it another color here and there. What a mess to look at.  The small couch was old with various red stains.The sheets were wrinkled and old as well as the towels. My husband and I talked about these hotels having cheap rates and you pretty well get what you pay for.  But we had to pay upfront $450 for 2 nights. We think $300 a night for the room is too much for the room we described. On a best rate, I'd say $60.00.Our experience isn't one that a property wants to be known for.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r201939034-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201939034</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Had to stay a few nights at this hotel while my sister was at Methodist Hospital.  Horrible Hotel!  One ice machine for the whole complex. I didn't even want to let my feet touch the carpet. Towels were cheap and old, Would not recommend this hotel to stay at unless you have no options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r176665195-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176665195</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Medical Center Appointment</t>
+  </si>
+  <si>
+    <t>Hotel was decent, beds were comfortable and clean and the bathroom was clean.  Overall the hotel was quiet and hardly no traffic in and out. The Kitchen had nothing in it as far as pots, pans, glasses, or forks etc.  so you will need to bring your own items for an extended stay.  The owners operate the hotel with bare minimum staff that is overworked and are under paid foreigners. They are nice but can not keep up with the needs of the hotel and its guest. However, it is not their fault.  Breakfast was stale bread and stale cereal.  Over all the room was nice.  The trip to the Hospital was a quick drive but they had a shuttle should you need or want to use it.  They will let you keep your car at the hotel while you go to your appointment.  At 10-13 dollars a day to park at the hospital the free parking and shuttle will save you lots of money, but door to door the wait was not that bad.  I hope this helps you in your decision making.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Hotel was decent, beds were comfortable and clean and the bathroom was clean.  Overall the hotel was quiet and hardly no traffic in and out. The Kitchen had nothing in it as far as pots, pans, glasses, or forks etc.  so you will need to bring your own items for an extended stay.  The owners operate the hotel with bare minimum staff that is overworked and are under paid foreigners. They are nice but can not keep up with the needs of the hotel and its guest. However, it is not their fault.  Breakfast was stale bread and stale cereal.  Over all the room was nice.  The trip to the Hospital was a quick drive but they had a shuttle should you need or want to use it.  They will let you keep your car at the hotel while you go to your appointment.  At 10-13 dollars a day to park at the hospital the free parking and shuttle will save you lots of money, but door to door the wait was not that bad.  I hope this helps you in your decision making.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r175985995-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175985995</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Aweful Experience</t>
+  </si>
+  <si>
+    <t>First of all, the man at the front desk is a total JERK! He was always in the front office and even drove the shuttle some of the time. One time when he picked my husband and I up from the MD Anderson Center, he stopped by Taco Bell to get himself food. He never said a word to us and continued to go through the drive-thru. And then he was blasting rap music and yelling at other drivers. I did not feel comfortable with him driving the shuttle van. On another note, the "shuttle" is a dirty, old van that the staff use and clearly do not clean it. The room was very large, we stayed in the "King suite with a kitchen".  Coming from North Carolina and planning on staying for a week to attend the MD Anderson Center, we chose to have a kitchen so we did not have to eat out all the time. The kitchen was BARE, we are expecting it to have pots, pans, plates, etc. Who carries these items with them when they are traveling? So we had to purchase plastic wear. The bed was old and you could feel the ruts of the other people. Also, on our first night one of the pillow cases had a small blood stain on it. The housekeeper was very nice and changed all the bedding when we approached her about the issue. Lastly, you will...First of all, the man at the front desk is a total JERK! He was always in the front office and even drove the shuttle some of the time. One time when he picked my husband and I up from the MD Anderson Center, he stopped by Taco Bell to get himself food. He never said a word to us and continued to go through the drive-thru. And then he was blasting rap music and yelling at other drivers. I did not feel comfortable with him driving the shuttle van. On another note, the "shuttle" is a dirty, old van that the staff use and clearly do not clean it. The room was very large, we stayed in the "King suite with a kitchen".  Coming from North Carolina and planning on staying for a week to attend the MD Anderson Center, we chose to have a kitchen so we did not have to eat out all the time. The kitchen was BARE, we are expecting it to have pots, pans, plates, etc. Who carries these items with them when they are traveling? So we had to purchase plastic wear. The bed was old and you could feel the ruts of the other people. Also, on our first night one of the pillow cases had a small blood stain on it. The housekeeper was very nice and changed all the bedding when we approached her about the issue. Lastly, you will not want to stay here if you like nice things. The pictures look nice but it is not nice at all!! The sink had a huge crack in it, the shower curtain rod was breaking, the drywall has numerous cracks, we found 2 roaches. The attention to detail in this room was horrible. Trim paint all over the walls, no shampoo/conditioner, numerous light fixtures missing, burnt out light bulbs, horrible A/C. Bottom line, DO NOT STAY HERE. Yes, it is cheap but it is not worth it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>First of all, the man at the front desk is a total JERK! He was always in the front office and even drove the shuttle some of the time. One time when he picked my husband and I up from the MD Anderson Center, he stopped by Taco Bell to get himself food. He never said a word to us and continued to go through the drive-thru. And then he was blasting rap music and yelling at other drivers. I did not feel comfortable with him driving the shuttle van. On another note, the "shuttle" is a dirty, old van that the staff use and clearly do not clean it. The room was very large, we stayed in the "King suite with a kitchen".  Coming from North Carolina and planning on staying for a week to attend the MD Anderson Center, we chose to have a kitchen so we did not have to eat out all the time. The kitchen was BARE, we are expecting it to have pots, pans, plates, etc. Who carries these items with them when they are traveling? So we had to purchase plastic wear. The bed was old and you could feel the ruts of the other people. Also, on our first night one of the pillow cases had a small blood stain on it. The housekeeper was very nice and changed all the bedding when we approached her about the issue. Lastly, you will...First of all, the man at the front desk is a total JERK! He was always in the front office and even drove the shuttle some of the time. One time when he picked my husband and I up from the MD Anderson Center, he stopped by Taco Bell to get himself food. He never said a word to us and continued to go through the drive-thru. And then he was blasting rap music and yelling at other drivers. I did not feel comfortable with him driving the shuttle van. On another note, the "shuttle" is a dirty, old van that the staff use and clearly do not clean it. The room was very large, we stayed in the "King suite with a kitchen".  Coming from North Carolina and planning on staying for a week to attend the MD Anderson Center, we chose to have a kitchen so we did not have to eat out all the time. The kitchen was BARE, we are expecting it to have pots, pans, plates, etc. Who carries these items with them when they are traveling? So we had to purchase plastic wear. The bed was old and you could feel the ruts of the other people. Also, on our first night one of the pillow cases had a small blood stain on it. The housekeeper was very nice and changed all the bedding when we approached her about the issue. Lastly, you will not want to stay here if you like nice things. The pictures look nice but it is not nice at all!! The sink had a huge crack in it, the shower curtain rod was breaking, the drywall has numerous cracks, we found 2 roaches. The attention to detail in this room was horrible. Trim paint all over the walls, no shampoo/conditioner, numerous light fixtures missing, burnt out light bulbs, horrible A/C. Bottom line, DO NOT STAY HERE. Yes, it is cheap but it is not worth it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r163497621-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163497621</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Not a great place.</t>
+  </si>
+  <si>
+    <t>Warped floors required furniture be propped up and the dresser drawer to always open a few inches. There were no dishes or utensils in the kitchenette so that was a bust. Not enough parking and spaces were not always marked. Housekeeper washed a styrofoam cup and left it face down on the counter like I wanted to use it again! Bugs!It was a convenient location and the bed was comfortable enough, the A/C worked well and the wi-fi was fast enough. so it was not all bad. I doubt I would stay there again by choice.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r159580196-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159580196</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Great location for Texas Medical Center</t>
+  </si>
+  <si>
+    <t>Pros:  Close to medical center, big and spacious room, working appliances in kitchen (fridge/micro/coffee maker/sink/cooktop), decently clean roomCons:  Limited parking, no utensils/plates/towels,etc in kitchen--the neighborhood didn't seem unsafe to me at all.  The hotel is kinda wedged between a residential and commercial area.  There's a subway, whataburger, mcdonalds and taco bell about a block or two away and within a mile away there's a shopping center with a Randall's/Chickfila/Panera/Barnes &amp; Noble, plus several other restaurants. I don't normally walk ANYWHERE at night so i can't judge how safe it is at night, but it's definitely safe during the day. My stays in houston are usually for multiple nights so i could see myself staying here several days if i had to without getting cabin fever.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:  Close to medical center, big and spacious room, working appliances in kitchen (fridge/micro/coffee maker/sink/cooktop), decently clean roomCons:  Limited parking, no utensils/plates/towels,etc in kitchen--the neighborhood didn't seem unsafe to me at all.  The hotel is kinda wedged between a residential and commercial area.  There's a subway, whataburger, mcdonalds and taco bell about a block or two away and within a mile away there's a shopping center with a Randall's/Chickfila/Panera/Barnes &amp; Noble, plus several other restaurants. I don't normally walk ANYWHERE at night so i can't judge how safe it is at night, but it's definitely safe during the day. My stays in houston are usually for multiple nights so i could see myself staying here several days if i had to without getting cabin fever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r157822433-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157822433</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>PARTY!</t>
+  </si>
+  <si>
+    <t>This place wasn't bad as far as the room or the price, but the management needs to be fired. We stayed 2 nights to sell things at a festival close by (good location for us). The first night was fine, but after 14 hours of working we just wanted a good night's sleep before doing it again and then making a 5 hour drive home afterwards. This never happened. A group of young people had a party there and were making all kinds of noise. They were in the parking lot yelling and fighting and playing loud music from their cars. The front desk refused to answer their phone or call the cops. We go to this festival every year, we will not be staying here next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This place wasn't bad as far as the room or the price, but the management needs to be fired. We stayed 2 nights to sell things at a festival close by (good location for us). The first night was fine, but after 14 hours of working we just wanted a good night's sleep before doing it again and then making a 5 hour drive home afterwards. This never happened. A group of young people had a party there and were making all kinds of noise. They were in the parking lot yelling and fighting and playing loud music from their cars. The front desk refused to answer their phone or call the cops. We go to this festival every year, we will not be staying here next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r153397089-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153397089</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>RUN!!!</t>
+  </si>
+  <si>
+    <t>This place is the WORST OF THE WORST.  This hotel is obviously providing free lodging for undocumented workers.  Staff is incompetent.  Rooms are disgustingly dirty.  Neighborhood is flat out scary.  Even in desperation, sleeping in your car in a safer area of Houston would be preferable to stepping one foot into this sad excuse for a hotel. RUN!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r129945128-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129945128</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Musty and dirty and AC did not work.  I left the second I walked in the room.  At check-in, the kid at the front said that he needed my card to have a CC on file.  Then, he went on to charge the full amount.  When I came back from the nasty room a few moments later,  the kid would/could not refund my money.  I called in and got the same kid.  He said to "try to call a manager in the morning" and went on to give me attitude.  He sounds high and is definitely incompetent.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r120645186-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120645186</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Dingy , depressing room close to medical center</t>
+  </si>
+  <si>
+    <t>Room was not clean and generally unappealing but was in a great location, Not my first choice but OK for  a nights sleep in a pinch.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1051,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1083,1711 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_560.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r584877885-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99131</t>
+  </si>
+  <si>
+    <t>584877885</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>So bad, we aren't complainers yet have to in this instance.</t>
+  </si>
+  <si>
+    <t>Hopefully, the video loaded successfully with this review. If so, no other words are really needed. Dirt/Stains on pillowcases, broken glass lampshade, towels either damp or stained, discolored couch cushion with a urine smell, bathtub and jacuzzi both showed signs of use from a previous customer, and more issues than I can remember to list. We aren't complainers unless something is BAD, and this was just plain disgusting. I bleached and disinfected the entire room so we could feel slightly comfortable, since the hotel did not offer to clean, but only brought me more damp sheets. Customer service or a normal "make it right" attitude were non-existant. Definitely not up to the standards of the other Choice Hotels we've stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hopefully, the video loaded successfully with this review. If so, no other words are really needed. Dirt/Stains on pillowcases, broken glass lampshade, towels either damp or stained, discolored couch cushion with a urine smell, bathtub and jacuzzi both showed signs of use from a previous customer, and more issues than I can remember to list. We aren't complainers unless something is BAD, and this was just plain disgusting. I bleached and disinfected the entire room so we could feel slightly comfortable, since the hotel did not offer to clean, but only brought me more damp sheets. Customer service or a normal "make it right" attitude were non-existant. Definitely not up to the standards of the other Choice Hotels we've stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r536953555-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536953555</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for!!!</t>
+  </si>
+  <si>
+    <t>Let me first tell you the good things..room rate is pretty economical. Second the owner did very nicely offer my child who studies close by offer for help at any time.However the facilities are not clean, "no-smoking" signs but people were smoking in their rooms, stinking up the place. The room stunk of smoke. The TV was broken, the floor in the room was uneven, the table and chairs were just wobbly, ready to break at any moment. Next time I would certainly consider quality and customer service over price. I would not recommend this place.The continental breakfast was nothing to write home about. Cleanliness and care is the issueMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Let me first tell you the good things..room rate is pretty economical. Second the owner did very nicely offer my child who studies close by offer for help at any time.However the facilities are not clean, "no-smoking" signs but people were smoking in their rooms, stinking up the place. The room stunk of smoke. The TV was broken, the floor in the room was uneven, the table and chairs were just wobbly, ready to break at any moment. Next time I would certainly consider quality and customer service over price. I would not recommend this place.The continental breakfast was nothing to write home about. Cleanliness and care is the issueMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r524208739-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>99131</t>
-  </si>
-  <si>
     <t>524208739</t>
   </si>
   <si>
@@ -225,7 +273,43 @@
     <t>My brother needed somewhere to stay while he received treatment at the MD Anderson Center. The OWNER was horribly rude to, not only me but, my brother. He told me "to STAY SOMEWHERE ELSE", when I was dissatisfied. It was also very DIRTY and smelt TERRIBLE. You think with a RUN DOWN HOTEL, they would have better sevice. I don't see this place being open much longer.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r489911934-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489911934</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>dirty, falling apart, unfriendly</t>
+  </si>
+  <si>
+    <t>This place was awful. Filthy couch.  Vents hanging down-broken.  Stained walls.  Owner/driver did not even say hello or open van doors at pick up.  No utensils in kitchen.  Outdated.  They don not care.  Charged almost $100 for nothing. DO NOT GO TO THIS PLACE. depressing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r470678106-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470678106</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Property is Unsafe</t>
+  </si>
+  <si>
+    <t>I booked my reservation online the pictures do not show the entire property it is very unsafe to stay over night when you are coming from a different city. I asked for a refund because i didnt feel safe to stay there. the manger told the front desk person not to call him up to the front desk for this mess again. He has a 24hour cancelation how can you have that type of clause if you are booking online. once i entered the premisses i wasnt there a good 15 minutes i couldnt take it. it was a small lobby area. his whole family lived on the property, no exaggeration.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I booked my reservation online the pictures do not show the entire property it is very unsafe to stay over night when you are coming from a different city. I asked for a refund because i didnt feel safe to stay there. the manger told the front desk person not to call him up to the front desk for this mess again. He has a 24hour cancelation how can you have that type of clause if you are booking online. once i entered the premisses i wasnt there a good 15 minutes i couldnt take it. it was a small lobby area. his whole family lived on the property, no exaggeration.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r442319264-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
@@ -246,9 +330,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>LEENA P, General Manager at Rodeway Inn &amp; Suites Medical Center, responded to this reviewResponded December 7, 2016</t>
   </si>
   <si>
@@ -297,6 +378,45 @@
     <t>Not luxurious or plush in any way, but the Rodeway Inn is a comfortable place to stay on a budget for a short stay.  My father and I came for 1 night to watch a copa america soccer game.  The hotel is close to the NRG Stadium, and is a great value.  It does have a damp/moldy smell to it, and the furniture is also quite outdated.  The suites are comfortable however with good internet, and a nice sized LCD TV.  The free breakfast is a plus as well.  I recommend this place for a short stay close to the NRG Stadium/Center or the Medical Center.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r379776883-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379776883</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>No desire to maintain</t>
+  </si>
+  <si>
+    <t>We had been going to this hotel for several years. Location to MD Anderson is nice. But for the last several years the place has gone down hill. This trip, it started with obvious signs of lack of proper maintenance: 2 inch opening under the door, mini blinds broken and not offering any privacy, various items in the kitchen area not repaired properly, more like rigged, missing sconce shades, and various holes in the walls. But what really got me was the lack of cleaning. There were cheerios on the bathroom floor, ceiling had not been cleaned in decades, and to top it all off, on the base of one of the wall sconces was a piece of what looked like part of a peanut butter sandwich. By the amount of mold on the bread it had been there for several weeks. Am glad we only stayed one night. Could not have stayed beyond that. We did however get a laugh when we noticed during their last paint job they must have opened the door for painting and complete forgot to paint behind the door!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had been going to this hotel for several years. Location to MD Anderson is nice. But for the last several years the place has gone down hill. This trip, it started with obvious signs of lack of proper maintenance: 2 inch opening under the door, mini blinds broken and not offering any privacy, various items in the kitchen area not repaired properly, more like rigged, missing sconce shades, and various holes in the walls. But what really got me was the lack of cleaning. There were cheerios on the bathroom floor, ceiling had not been cleaned in decades, and to top it all off, on the base of one of the wall sconces was a piece of what looked like part of a peanut butter sandwich. By the amount of mold on the bread it had been there for several weeks. Am glad we only stayed one night. Could not have stayed beyond that. We did however get a laugh when we noticed during their last paint job they must have opened the door for painting and complete forgot to paint behind the door!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r353200243-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353200243</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Nothing like the pics</t>
+  </si>
+  <si>
+    <t>About a mile away from MD Anderson - look elsewhere for an accommodating room.Parking is very limited and only one way in - you have to back out of the lot to leave (?!?) if you can find a spot.Our room (2014) was dingy and misshapen, it leaned noticeably upon entrance and was confirmed by the dresser drawers not staying closed due to its leaning despite being "shimmed" with toilet paper/paper towels. The kitchenette, while not used, lacked dishes or silverware; opened the 'fridge and it was cold but can't comment further on its utility.We slept with our clothes on for the three hours we allotted for rest late that night, splashed water on our faces and returned to our beloved's room at the hospital.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>About a mile away from MD Anderson - look elsewhere for an accommodating room.Parking is very limited and only one way in - you have to back out of the lot to leave (?!?) if you can find a spot.Our room (2014) was dingy and misshapen, it leaned noticeably upon entrance and was confirmed by the dresser drawers not staying closed due to its leaning despite being "shimmed" with toilet paper/paper towels. The kitchenette, while not used, lacked dishes or silverware; opened the 'fridge and it was cold but can't comment further on its utility.We slept with our clothes on for the three hours we allotted for rest late that night, splashed water on our faces and returned to our beloved's room at the hospital.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r346283860-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +432,6 @@
     <t>This motel was such an odd mixture of good and bad.  The manager was pleasant and lived on-site.  The neighborhood was nice and the room was quiet. It felt clean because of the hard surface floors throughout. The kitchen had nearly a full sized frig, stove, and microwave. It was an old place but had been updated. However, the updates were not done well ... the black cable for the TV strung diagonally across the white ceiling.  The tiles didn't have subflooring underneath so many were loose.  The kitchen had zero kitchenware in the cabinets.  The bed was on a platform that had been painted on two of the 3 exposed sides. The nice wooden blinds had not been shortened to fit the window.  It seemed there were many "easy" fixes to improve the feel of the room.  With a little money, it could be a welcoming room.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>This motel was such an odd mixture of good and bad.  The manager was pleasant and lived on-site.  The neighborhood was nice and the room was quiet. It felt clean because of the hard surface floors throughout. The kitchen had nearly a full sized frig, stove, and microwave. It was an old place but had been updated. However, the updates were not done well ... the black cable for the TV strung diagonally across the white ceiling.  The tiles didn't have subflooring underneath so many were loose.  The kitchen had zero kitchenware in the cabinets.  The bed was on a platform that had been painted on two of the 3 exposed sides. The nice wooden blinds had not been shortened to fit the window.  It seemed there were many "easy" fixes to improve the feel of the room.  With a little money, it could be a welcoming room.More</t>
   </si>
   <si>
@@ -351,6 +468,45 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r318979897-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318979897</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Bad but not the worst</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights. Let be honest, it will be not the best hotel that you ever be stayed in, but I certainly will not be the worst one you could stay. I did my reservation on the internet and was all OK with that. The hotel is well located and near of TMC and Reliant/NRG stadium. The breakfast is very simple but some hotels even offer one. Wifi internet was good in the room. I did not have any issues with cleanliness. My tobacco free room was big enouth for a couple with children. It has kitchen and sofa. The overall itself is not modern and could have some reform. But for my short stay it was not a problem at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights. Let be honest, it will be not the best hotel that you ever be stayed in, but I certainly will not be the worst one you could stay. I did my reservation on the internet and was all OK with that. The hotel is well located and near of TMC and Reliant/NRG stadium. The breakfast is very simple but some hotels even offer one. Wifi internet was good in the room. I did not have any issues with cleanliness. My tobacco free room was big enouth for a couple with children. It has kitchen and sofa. The overall itself is not modern and could have some reform. But for my short stay it was not a problem at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r307835588-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307835588</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>medical apptmnt with oulmonary dr.</t>
+  </si>
+  <si>
+    <t>dirty, filthy ,rooms reeked of bad odor.doors didnt lock right.floor tiles lifting off floors,tripping and health hazard,is what this place is.and they claim on line to be medical suites.what a joke and a rip off.i will complain further to medical facities around the area about this hotel advertising itself as such.i will also advise strongly my freinds and family to avoid this place at all costs.they shoud take this place off internet as medical suites.they should advertise more as a roach motel</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r271196201-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -408,6 +564,47 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r251638988-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251638988</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>room was pretty nasty. mold hanging from the ceiling,cobwebs in corner around bed frame.mold growing around bathsink coffeepot was crungy., stains on the couch. worst was the punget moldy smell that made my Lysol can run away. would not stay again unless nothing  else available.  beds were comfortable and was quiet, but just a run down old motel.  breakfast was not worth it. front desk help had to be  '' woke up '' each time.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r225489917-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225489917</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Really rude</t>
+  </si>
+  <si>
+    <t>It wasn’t the sketchy entrance.  It wasn’t the fact that my room key that I had just received didn’t work.  It wasn’t the broken hair dryer, the TV with permanent horizontal lines etched into the picture, the broken remote, the door that wouldn’t close all the way, the fact that we had no towels or the really scary folks hanging around outside smoking.  No - it wasn’t dealing with all this stuff that made me realize what a total dung heap this “hotel” is…it was the amazing rude and uncaring management that refused to lookup from the computer as I waited at the front desk for ten minutes.  In fact, every time I went to the front desk, I felt that I was interrupting some video game or you tube binge session.  When I asked to get a new key or some towels, I got an eye roll and long drawn out sigh then a slow resentful slog towards the desk.   These folks make the TSA look downright friendly and efficient.  I’ve seen postal workers move faster than these guys.  
+I’ve traveled all over the US and onto every continent except Antarctica and I’ve stayed at many hotels.  This one takes the cake as far as rude desk people and incredibly nasty rooms.  I am both embarrassed and ashamed that I put my family through this for two days.   I’ll be buying a lot of jewelry to make up for...It wasn’t the sketchy entrance.  It wasn’t the fact that my room key that I had just received didn’t work.  It wasn’t the broken hair dryer, the TV with permanent horizontal lines etched into the picture, the broken remote, the door that wouldn’t close all the way, the fact that we had no towels or the really scary folks hanging around outside smoking.  No - it wasn’t dealing with all this stuff that made me realize what a total dung heap this “hotel” is…it was the amazing rude and uncaring management that refused to lookup from the computer as I waited at the front desk for ten minutes.  In fact, every time I went to the front desk, I felt that I was interrupting some video game or you tube binge session.  When I asked to get a new key or some towels, I got an eye roll and long drawn out sigh then a slow resentful slog towards the desk.   These folks make the TSA look downright friendly and efficient.  I’ve seen postal workers move faster than these guys.  I’ve traveled all over the US and onto every continent except Antarctica and I’ve stayed at many hotels.  This one takes the cake as far as rude desk people and incredibly nasty rooms.  I am both embarrassed and ashamed that I put my family through this for two days.   I’ll be buying a lot of jewelry to make up for this.  Do yourself a favor – pay a few bucks more and stay somewhere else.  You’ll be glad you did.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>It wasn’t the sketchy entrance.  It wasn’t the fact that my room key that I had just received didn’t work.  It wasn’t the broken hair dryer, the TV with permanent horizontal lines etched into the picture, the broken remote, the door that wouldn’t close all the way, the fact that we had no towels or the really scary folks hanging around outside smoking.  No - it wasn’t dealing with all this stuff that made me realize what a total dung heap this “hotel” is…it was the amazing rude and uncaring management that refused to lookup from the computer as I waited at the front desk for ten minutes.  In fact, every time I went to the front desk, I felt that I was interrupting some video game or you tube binge session.  When I asked to get a new key or some towels, I got an eye roll and long drawn out sigh then a slow resentful slog towards the desk.   These folks make the TSA look downright friendly and efficient.  I’ve seen postal workers move faster than these guys.  
+I’ve traveled all over the US and onto every continent except Antarctica and I’ve stayed at many hotels.  This one takes the cake as far as rude desk people and incredibly nasty rooms.  I am both embarrassed and ashamed that I put my family through this for two days.   I’ll be buying a lot of jewelry to make up for...It wasn’t the sketchy entrance.  It wasn’t the fact that my room key that I had just received didn’t work.  It wasn’t the broken hair dryer, the TV with permanent horizontal lines etched into the picture, the broken remote, the door that wouldn’t close all the way, the fact that we had no towels or the really scary folks hanging around outside smoking.  No - it wasn’t dealing with all this stuff that made me realize what a total dung heap this “hotel” is…it was the amazing rude and uncaring management that refused to lookup from the computer as I waited at the front desk for ten minutes.  In fact, every time I went to the front desk, I felt that I was interrupting some video game or you tube binge session.  When I asked to get a new key or some towels, I got an eye roll and long drawn out sigh then a slow resentful slog towards the desk.   These folks make the TSA look downright friendly and efficient.  I’ve seen postal workers move faster than these guys.  I’ve traveled all over the US and onto every continent except Antarctica and I’ve stayed at many hotels.  This one takes the cake as far as rude desk people and incredibly nasty rooms.  I am both embarrassed and ashamed that I put my family through this for two days.   I’ll be buying a lot of jewelry to make up for this.  Do yourself a favor – pay a few bucks more and stay somewhere else.  You’ll be glad you did.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r222099019-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -456,6 +653,39 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r208887787-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208887787</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because of it's close proximity to the area hospitals. This was by far the worst hotel I have ever stayed at. When I arrived to my room the door was open and the room was half cleaned. After an hour the maid returned and finished cleaning the room. The a/c was full of mold and made my son and I sick. There was zero water pressure so taking a shower was damn near impossible. Wall outlet covers were missing, it's just really run down. I wish I had looked at the reviews before booking this hotel. Do yourself a favor and stay somewhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r205678552-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205678552</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>$100 a night? Really? This is a run down dump and should be taken off the market until it is greatly improved. Rode way Inn usually has ok products, but this is a disgrace to their name. The pictures posted  are very deceptive. They don't show you the small, unfinished box lobby with wired stapled to the walls, nor can you see the broken parking lot or the dirty dark rooms. It is hard to find, off a major street, but is close to the medical Center. That is its only saving grace.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r205385985-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -489,9 +719,6 @@
     <t>Medical trip. I knew the rate was higher for Mon May5because of Oil convention and didn't mind paying the rate, but we didn't get what we paid for $450. I can't be positive about in any way shape or form about the condition of the room.I'll skip commenting on the appearance of site because it deceived me. After opening the door to the room, it was apparent the owner spent more on landscaping and yard maintenance than on the room, The condition of the room on website didn't show the inside door sloppily painted with 2 colors one superimposed in places over the other. The door appeared to have been kicked in because it didn't fit properly. The floor molding was painted one color and appeared to have begun to paint it another color here and there. What a mess to look at.  The small couch was old with various red stains.The sheets were wrinkled and old as well as the towels. My husband and I talked about these hotels having cheap rates and you pretty well get what you pay for.  But we had to pay upfront $450 for 2 nights. We think $300 a night for the room is too much for the room we described. On a best rate, I'd say $60.00.Our experience isn't one that a property wants to be known for.   MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>Medical trip. I knew the rate was higher for Mon May5because of Oil convention and didn't mind paying the rate, but we didn't get what we paid for $450. I can't be positive about in any way shape or form about the condition of the room.I'll skip commenting on the appearance of site because it deceived me. After opening the door to the room, it was apparent the owner spent more on landscaping and yard maintenance than on the room, The condition of the room on website didn't show the inside door sloppily painted with 2 colors one superimposed in places over the other. The door appeared to have been kicked in because it didn't fit properly. The floor molding was painted one color and appeared to have begun to paint it another color here and there. What a mess to look at.  The small couch was old with various red stains.The sheets were wrinkled and old as well as the towels. My husband and I talked about these hotels having cheap rates and you pretty well get what you pay for.  But we had to pay upfront $450 for 2 nights. We think $300 a night for the room is too much for the room we described. On a best rate, I'd say $60.00.Our experience isn't one that a property wants to be known for.   More</t>
   </si>
   <si>
@@ -510,6 +737,45 @@
     <t>Had to stay a few nights at this hotel while my sister was at Methodist Hospital.  Horrible Hotel!  One ice machine for the whole complex. I didn't even want to let my feet touch the carpet. Towels were cheap and old, Would not recommend this hotel to stay at unless you have no options.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r184683428-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184683428</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>STOP Don't Stay Here!</t>
+  </si>
+  <si>
+    <t>My husband stayed at this "place" for one nite, even though we had two nites reservations.  We would have checked out as soon as we walked in but had arrived late &amp; exhausted.  I did not sleep that night for there was no lock on the door!  The beds were horrible, linens stained, dingy.  The toilet seat was broken thus when you sat down you would slide off, no coffee pot, no coffee even though there was a coffee maker.  People are actually living here thus this is not a motel but more like apartments.  The person who was above us must have weighed 500 lbs &amp; lifted weights all night or just liked to walk around.  The pictures show a suite...I wouldn't set my dirty shoes on the sofa!  The price was low but if you ask for a medical rate at high end places like LaQuinta the rates are the same.  This place is a DUMP....DO NOT STAY HERE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>My husband stayed at this "place" for one nite, even though we had two nites reservations.  We would have checked out as soon as we walked in but had arrived late &amp; exhausted.  I did not sleep that night for there was no lock on the door!  The beds were horrible, linens stained, dingy.  The toilet seat was broken thus when you sat down you would slide off, no coffee pot, no coffee even though there was a coffee maker.  People are actually living here thus this is not a motel but more like apartments.  The person who was above us must have weighed 500 lbs &amp; lifted weights all night or just liked to walk around.  The pictures show a suite...I wouldn't set my dirty shoes on the sofa!  The price was low but if you ask for a medical rate at high end places like LaQuinta the rates are the same.  This place is a DUMP....DO NOT STAY HERE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r183634157-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183634157</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I am mystified by this hotel's low ratings - maybe it was recently renovated? I paid $59.99/night for a room that was really a one-room apartment. It's located about 1/2 mile south of Rice Village in a very nice residential neighborhood, one block from a good sushi restaurant and a Spec's (only the best liquor store in all of Texas). It's also close to the Medical Center and they provide free shuttles on the hour to nearby doctors and hospitals (other hotels in this area range from $200-300/night). The room had a modern clean look - particularly nice flooring. The kitchen had a large fridge, a microwave, two stove burners, and a one-cup coffee pot. There were not plates, utensils, etc. but the kitchen would still be very useful for a long stay. The living room had a small marble desk, a couch, and a foot rest. The bed was massive. Closet with hangers and an ironing board. Big TV visible in both living room and bedroom. The room was cleaned impeccably each of the five mornings I was there. The AC wall unit was so effective at cooling the place, I left it off most of the time. Counter to information on some webpages referencing the hotel, wireless internet is available in each room and works very well. Breakfast items (cereal, pastries, instant oatmeal) were provided in the office - the office was staffed 24 hours/day from what I...I am mystified by this hotel's low ratings - maybe it was recently renovated? I paid $59.99/night for a room that was really a one-room apartment. It's located about 1/2 mile south of Rice Village in a very nice residential neighborhood, one block from a good sushi restaurant and a Spec's (only the best liquor store in all of Texas). It's also close to the Medical Center and they provide free shuttles on the hour to nearby doctors and hospitals (other hotels in this area range from $200-300/night). The room had a modern clean look - particularly nice flooring. The kitchen had a large fridge, a microwave, two stove burners, and a one-cup coffee pot. There were not plates, utensils, etc. but the kitchen would still be very useful for a long stay. The living room had a small marble desk, a couch, and a foot rest. The bed was massive. Closet with hangers and an ironing board. Big TV visible in both living room and bedroom. The room was cleaned impeccably each of the five mornings I was there. The AC wall unit was so effective at cooling the place, I left it off most of the time. Counter to information on some webpages referencing the hotel, wireless internet is available in each room and works very well. Breakfast items (cereal, pastries, instant oatmeal) were provided in the office - the office was staffed 24 hours/day from what I could tell.Not to say that there aren't still remnants of this hotel's history as a budget hotel. High maintenance travelers will want to know the water pressure is low in the shower, the TV had some horizontal lines running through it, the pillows were very flat, and hair dryers and irons were not available. Although the hotel was generally extremely quiet, we heard the activities of a loud couple next door one night through our wall - it was short-lived. The man who is usually behind the front desk is unusual - it seemed to be more an issue of personality differences than cultural differences as the rest of the staff was friendly - he won't make eye contact, says as little as possible, and generally has a very uncomfortable demeanor. You get the feeling he hates you, but ultimately he was very helpful with a specific receipt need we had.Would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am mystified by this hotel's low ratings - maybe it was recently renovated? I paid $59.99/night for a room that was really a one-room apartment. It's located about 1/2 mile south of Rice Village in a very nice residential neighborhood, one block from a good sushi restaurant and a Spec's (only the best liquor store in all of Texas). It's also close to the Medical Center and they provide free shuttles on the hour to nearby doctors and hospitals (other hotels in this area range from $200-300/night). The room had a modern clean look - particularly nice flooring. The kitchen had a large fridge, a microwave, two stove burners, and a one-cup coffee pot. There were not plates, utensils, etc. but the kitchen would still be very useful for a long stay. The living room had a small marble desk, a couch, and a foot rest. The bed was massive. Closet with hangers and an ironing board. Big TV visible in both living room and bedroom. The room was cleaned impeccably each of the five mornings I was there. The AC wall unit was so effective at cooling the place, I left it off most of the time. Counter to information on some webpages referencing the hotel, wireless internet is available in each room and works very well. Breakfast items (cereal, pastries, instant oatmeal) were provided in the office - the office was staffed 24 hours/day from what I...I am mystified by this hotel's low ratings - maybe it was recently renovated? I paid $59.99/night for a room that was really a one-room apartment. It's located about 1/2 mile south of Rice Village in a very nice residential neighborhood, one block from a good sushi restaurant and a Spec's (only the best liquor store in all of Texas). It's also close to the Medical Center and they provide free shuttles on the hour to nearby doctors and hospitals (other hotels in this area range from $200-300/night). The room had a modern clean look - particularly nice flooring. The kitchen had a large fridge, a microwave, two stove burners, and a one-cup coffee pot. There were not plates, utensils, etc. but the kitchen would still be very useful for a long stay. The living room had a small marble desk, a couch, and a foot rest. The bed was massive. Closet with hangers and an ironing board. Big TV visible in both living room and bedroom. The room was cleaned impeccably each of the five mornings I was there. The AC wall unit was so effective at cooling the place, I left it off most of the time. Counter to information on some webpages referencing the hotel, wireless internet is available in each room and works very well. Breakfast items (cereal, pastries, instant oatmeal) were provided in the office - the office was staffed 24 hours/day from what I could tell.Not to say that there aren't still remnants of this hotel's history as a budget hotel. High maintenance travelers will want to know the water pressure is low in the shower, the TV had some horizontal lines running through it, the pillows were very flat, and hair dryers and irons were not available. Although the hotel was generally extremely quiet, we heard the activities of a loud couple next door one night through our wall - it was short-lived. The man who is usually behind the front desk is unusual - it seemed to be more an issue of personality differences than cultural differences as the rest of the staff was friendly - he won't make eye contact, says as little as possible, and generally has a very uncomfortable demeanor. You get the feeling he hates you, but ultimately he was very helpful with a specific receipt need we had.Would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r176665195-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -570,6 +836,39 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r161657322-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161657322</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Looks are deceiving!</t>
+  </si>
+  <si>
+    <t>The pictures look different from the room we stayed in, awful smell first of all, beds are hard, bathroom does not look like the one in photo.  I had to move a construction cone which was placed in front of a small room which was for cleaning equipment just to park.  The air conditioner was extremely cold and would not shut off during the night.  We stayed here for one night and that was too long.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r160051589-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160051589</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Beware of !!!</t>
+  </si>
+  <si>
+    <t>This place needs to be torn down.  The beds are not actually beds.  They  are had made and sit on wooden platforms.  The linen is stained and dirty/dingy looking.  There were bed bugs, coffee spilled in the microwave, dirty floors and smelly--as in old, dusty, moldy odors--which sat in my bag for days even after using febreze and lysol.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r159580196-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -603,9 +902,6 @@
     <t>This place wasn't bad as far as the room or the price, but the management needs to be fired. We stayed 2 nights to sell things at a festival close by (good location for us). The first night was fine, but after 14 hours of working we just wanted a good night's sleep before doing it again and then making a 5 hour drive home afterwards. This never happened. A group of young people had a party there and were making all kinds of noise. They were in the parking lot yelling and fighting and playing loud music from their cars. The front desk refused to answer their phone or call the cops. We go to this festival every year, we will not be staying here next year.MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>This place wasn't bad as far as the room or the price, but the management needs to be fired. We stayed 2 nights to sell things at a festival close by (good location for us). The first night was fine, but after 14 hours of working we just wanted a good night's sleep before doing it again and then making a 5 hour drive home afterwards. This never happened. A group of young people had a party there and were making all kinds of noise. They were in the parking lot yelling and fighting and playing loud music from their cars. The front desk refused to answer their phone or call the cops. We go to this festival every year, we will not be staying here next year.More</t>
   </si>
   <si>
@@ -625,6 +921,48 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r142033096-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142033096</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>OK for Night Stay</t>
+  </si>
+  <si>
+    <t>Rooms are being renovated; beds are nice; bath is clean.  I only needed a place to stay overnight as I had an appt at the medical center.  Shuttle is provided between 7:00 a.m. and early evening which was nice and Wi-Fi is available.  No coffee pot provided in room; no paper/plastic cups for water; no hair dryer; no hangers in closet.  I had to request wash cloths and there was only cold water in shower.  My impression is the owners are new at the motel business and have a LOT to learn.  For someone undergoing extensive treatment at the medical center this is probably a  very economical place for one to stay due to kitchen being available but they would have to furnish own utensils/dishes, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Rooms are being renovated; beds are nice; bath is clean.  I only needed a place to stay overnight as I had an appt at the medical center.  Shuttle is provided between 7:00 a.m. and early evening which was nice and Wi-Fi is available.  No coffee pot provided in room; no paper/plastic cups for water; no hair dryer; no hangers in closet.  I had to request wash cloths and there was only cold water in shower.  My impression is the owners are new at the motel business and have a LOT to learn.  For someone undergoing extensive treatment at the medical center this is probably a  very economical place for one to stay due to kitchen being available but they would have to furnish own utensils/dishes, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r140557500-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140557500</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Stay Elsewhere!</t>
+  </si>
+  <si>
+    <t>The room was not clean.  The floor between the bed and the wall had not been swept in ages.  The bathroom had mold in the shower.  The closet smelled so bad that there was NO way we could use it.  No coffee maker or even a plastic cup to get a drink of water.  If I had not just driven 9 hours, we would have checked out and gone elsewhere.  The receptionist truly did not care about anything we had to say.  The continental breakfast was beyond belief.  No coffee, the rolls were stale and the "juice" was something that was watered down.  We checked out and got breakfast down the street.  I would never recommend this dump to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>The room was not clean.  The floor between the bed and the wall had not been swept in ages.  The bathroom had mold in the shower.  The closet smelled so bad that there was NO way we could use it.  No coffee maker or even a plastic cup to get a drink of water.  If I had not just driven 9 hours, we would have checked out and gone elsewhere.  The receptionist truly did not care about anything we had to say.  The continental breakfast was beyond belief.  No coffee, the rolls were stale and the "juice" was something that was watered down.  We checked out and got breakfast down the street.  I would never recommend this dump to anyone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99131-r129945128-Rodeway_Inn_Suites_Medical_Center-Houston_Texas.html</t>
@@ -1209,14 +1547,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1232,48 +1566,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1289,31 +1629,31 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
       </c>
       <c r="O4" t="s">
         <v>69</v>
@@ -1327,10 +1667,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1346,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1355,25 +1699,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1384,12 +1728,8 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>79</v>
       </c>
@@ -1428,13 +1768,13 @@
         <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1448,7 +1788,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1464,54 +1804,44 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1527,46 +1857,46 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1574,7 +1904,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1590,34 +1920,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1628,10 +1958,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1647,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1656,45 +1990,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1710,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1719,39 +2047,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>116</v>
-      </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1767,7 +2101,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1776,35 +2110,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1812,7 +2148,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1828,7 +2164,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1837,43 +2173,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1889,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1898,35 +2234,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -1942,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1951,45 +2297,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -2005,7 +2345,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2014,44 +2354,46 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2066,7 +2408,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2075,49 +2417,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2133,7 +2465,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2142,41 +2474,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2184,7 +2510,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -2200,7 +2526,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2209,49 +2535,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2267,7 +2583,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2276,41 +2592,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>3</v>
       </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2318,7 +2628,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -2334,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2343,41 +2653,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2385,7 +2689,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2401,7 +2705,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2410,38 +2714,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>2</v>
@@ -2452,7 +2752,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
@@ -2468,7 +2768,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2477,41 +2777,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2519,7 +2813,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -2535,7 +2829,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2544,49 +2838,35 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s">
-        <v>195</v>
-      </c>
-      <c r="O24" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -2602,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2611,41 +2891,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2653,7 +2929,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -2669,7 +2945,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2678,50 +2954,44 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>206</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>206</v>
-      </c>
+      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2736,7 +3006,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2745,25 +3015,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>210</v>
       </c>
-      <c r="K27" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>213</v>
-      </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2772,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -2787,7 +3057,1213 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23607</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
